--- a/Outputs/Cover/FINAL_Cover_year.xlsx
+++ b/Outputs/Cover/FINAL_Cover_year.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathonlocal\Desktop\Nature Foundation\CORENA Project\Reef_Monitoring\Outputs\Cover\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1E8AD24-C30D-4EA3-A4A7-D416C92F0542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBDBAD11-63FD-4A61-9B40-184431E776B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="765" yWindow="225" windowWidth="19170" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Cover_year" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="99">
   <si>
     <t>3.373 ± 1.67</t>
   </si>
@@ -106,25 +106,46 @@
     <t>0.508 ± 1.079</t>
   </si>
   <si>
-    <t>65.397 ± 17.497</t>
-  </si>
-  <si>
-    <t>65.394 ± 15.415</t>
-  </si>
-  <si>
-    <t>59.551 ± 15.525</t>
-  </si>
-  <si>
-    <t>68.433 ± 14.311</t>
-  </si>
-  <si>
-    <t>87.654 ± 6.137</t>
-  </si>
-  <si>
-    <t>65.583 ± 12.471</t>
-  </si>
-  <si>
-    <t>67.855 ± 12.04</t>
+    <t>34.169 ± 9.994</t>
+  </si>
+  <si>
+    <t>14.309 ± 7.978</t>
+  </si>
+  <si>
+    <t>28.086 ± 4.734</t>
+  </si>
+  <si>
+    <t>16.316 ± 6.504</t>
+  </si>
+  <si>
+    <t>31.838 ± 9.661</t>
+  </si>
+  <si>
+    <t>18.037 ± 11.578</t>
+  </si>
+  <si>
+    <t>21.547 ± 11.451</t>
+  </si>
+  <si>
+    <t>31.229 ± 9.695</t>
+  </si>
+  <si>
+    <t>51.086 ± 9.233</t>
+  </si>
+  <si>
+    <t>31.466 ± 14.656</t>
+  </si>
+  <si>
+    <t>52.117 ± 9.575</t>
+  </si>
+  <si>
+    <t>55.816 ± 6.534</t>
+  </si>
+  <si>
+    <t>47.546 ± 3.772</t>
+  </si>
+  <si>
+    <t>46.308 ± 10.082</t>
   </si>
   <si>
     <t>2.754 ± 4.014</t>
@@ -268,6 +289,9 @@
     <t>Mean Macroalge cover</t>
   </si>
   <si>
+    <t>Mean Turf cover</t>
+  </si>
+  <si>
     <t>Mean Other live cover</t>
   </si>
   <si>
@@ -289,10 +313,10 @@
     <t>Mean Disease frequency</t>
   </si>
   <si>
+    <t>2017 before Irma</t>
+  </si>
+  <si>
     <t>2017 after Irma</t>
-  </si>
-  <si>
-    <t>2017 before Irma</t>
   </si>
 </sst>
 </file>
@@ -617,12 +641,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -752,6 +776,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -797,12 +834,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1158,357 +1196,381 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="2">
+      <c r="B1" s="1">
         <v>2016</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="2">
+      <c r="C1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="1">
         <v>2018</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="1">
         <v>2019</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="1">
         <v>2020</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="1">
         <v>2023</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="G7" s="3" t="s">
         <v>40</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="A8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="G8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="A10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="C10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>39</v>
+      <c r="E10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="A11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>63</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="A13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>76</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
